--- a/MAIN/currentdata.xlsx
+++ b/MAIN/currentdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7488" windowHeight="2406" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7488" windowHeight="2406" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -385,570 +385,1218 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A720"/>
+  <dimension ref="A1:C720"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A720"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>-3535533905.9327378</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
-        <v>-36.786078963253956</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>-3535533905.9327378</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
-        <v>-54.099206202966997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>-3535533905.9327378</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <v>-56.447336332563559</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>-3535533905.9327378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
-        <v>-48.729511945579645</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>-3535533905.9327378</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
-        <v>-35.584307329539349</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>-3535533905.9327378</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
-        <v>-20.947581623670136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>-3535533905.9327378</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
-        <v>-7.8052231334617987</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>-3535533905.9327378</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
-        <v>1.8889497232845789</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-213014277.34684983</v>
+      </c>
+      <c r="B9">
+        <v>755905126.73991954</v>
+      </c>
+      <c r="C9">
+        <v>-3694490879.7641759</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
-        <v>7.1673075042498366</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-367444310.4161849</v>
+      </c>
+      <c r="B10">
+        <v>1573497476.9599299</v>
+      </c>
+      <c r="C10">
+        <v>-3571763518.7506952</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
-        <v>7.9131238444566039</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-449350340.0023278</v>
+      </c>
+      <c r="B11">
+        <v>2389576991.4549232</v>
+      </c>
+      <c r="C11">
+        <v>-3128534404.6536837</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
-        <v>4.6718809524710858</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-454162131.2321834</v>
+      </c>
+      <c r="B12">
+        <v>3132020760.1815262</v>
+      </c>
+      <c r="C12">
+        <v>-2347024662.1822958</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
-        <v>-1.5598032261076586</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-387778362.95088977</v>
+      </c>
+      <c r="B13">
+        <v>3725286520.483263</v>
+      </c>
+      <c r="C13">
+        <v>-1235917126.5794544</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
-        <v>-9.5427447000458212</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-266505425.51491234</v>
+      </c>
+      <c r="B14">
+        <v>4096900174.841053</v>
+      </c>
+      <c r="C14">
+        <v>165760848.02545452</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
-        <v>-17.982845176103375</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-115737508.85591002</v>
+      </c>
+      <c r="B15">
+        <v>4184425534.689116</v>
+      </c>
+      <c r="C15">
+        <v>1786944526.1065016</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
-        <v>-25.685608197135132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>32586552.18478816</v>
+      </c>
+      <c r="B16">
+        <v>3942317808.2850971</v>
+      </c>
+      <c r="C16">
+        <v>3525562282.1696396</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
-        <v>-31.670857037326602</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>143572482.68287215</v>
+      </c>
+      <c r="B17">
+        <v>3348013776.8485117</v>
+      </c>
+      <c r="C17">
+        <v>5252634114.2214947</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
-        <v>-35.245692433182334</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>183693677.50607803</v>
+      </c>
+      <c r="B18">
+        <v>2406619698.9720383</v>
+      </c>
+      <c r="C18">
+        <v>6819531213.1561937</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
-        <v>-36.037479084957781</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>125423225.20592038</v>
+      </c>
+      <c r="B19">
+        <v>1153626538.9517422</v>
+      </c>
+      <c r="C19">
+        <v>8068192540.7332392</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-48326732.667755939</v>
+      </c>
+      <c r="B20">
+        <v>-344790494.0912984</v>
+      </c>
+      <c r="C20">
+        <v>8843776118.7686005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-340488822.96501452</v>
+      </c>
+      <c r="B21">
+        <v>-1994152104.1658747</v>
+      </c>
+      <c r="C21">
+        <v>9008912669.5173397</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-737352007.07359278</v>
+      </c>
+      <c r="B22">
+        <v>-3676780647.6897612</v>
+      </c>
+      <c r="C22">
+        <v>8458459358.8038483</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
-        <v>-35.584307329539349</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-1207722580.1273038</v>
+      </c>
+      <c r="B23">
+        <v>-5259437042.4898748</v>
+      </c>
+      <c r="C23">
+        <v>7133453342.2929173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-1704020253.150903</v>
+      </c>
+      <c r="B24">
+        <v>-6603052089.8642597</v>
+      </c>
+      <c r="C24">
+        <v>5032866733.3700829</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-2165415359.9872589</v>
+      </c>
+      <c r="B25">
+        <v>-7573892728.2954445</v>
+      </c>
+      <c r="C25">
+        <v>2221787938.1493745</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-2522904928.2109528</v>
+      </c>
+      <c r="B26">
+        <v>-8055321990.5953512</v>
+      </c>
+      <c r="C26">
+        <v>-1165189010.5938303</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-2680274829.2768207</v>
+      </c>
+      <c r="B27">
+        <v>-8040824487.8304644</v>
+      </c>
+      <c r="C27">
+        <v>-3964299558.3870416</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-2680274829.2768207</v>
+      </c>
+      <c r="B28">
+        <v>-8040824487.8304644</v>
+      </c>
+      <c r="C28">
+        <v>-3964299558.3870416</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
-        <v>-20.947581623670136</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-4595740801.4254045</v>
+      </c>
+      <c r="B29">
+        <v>-5455256843.4805508</v>
+      </c>
+      <c r="C29">
+        <v>-3964299558.3870416</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-6222439477.0680733</v>
+      </c>
+      <c r="B30">
+        <v>-2526915348.6235161</v>
+      </c>
+      <c r="C30">
+        <v>-3964299558.3870416</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-7458159395.8349562</v>
+      </c>
+      <c r="B31">
+        <v>560201530.93210602</v>
+      </c>
+      <c r="C31">
+        <v>-3964299558.3870416</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-8225255730.569973</v>
+      </c>
+      <c r="B32">
+        <v>3612118888.0221529</v>
+      </c>
+      <c r="C32">
+        <v>-3964299558.3870416</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-8475528997.3787489</v>
+      </c>
+      <c r="B33">
+        <v>6437073530.9337578</v>
+      </c>
+      <c r="C33">
+        <v>-3964299558.3870416</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-8193253606.467</v>
+      </c>
+      <c r="B34">
+        <v>8857563169.9963627</v>
+      </c>
+      <c r="C34">
+        <v>-3964299558.3870416</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-8040824487.8304644</v>
+      </c>
+      <c r="B35">
+        <v>9380961902.468874</v>
+      </c>
+      <c r="C35">
+        <v>-3964299558.3870416</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
-        <v>-7.8052231334617987</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-7591876959.1494408</v>
+      </c>
+      <c r="B36">
+        <v>8277174657.0934801</v>
+      </c>
+      <c r="C36">
+        <v>-7598652007.3146791</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-6464939990.4124413</v>
+      </c>
+      <c r="B37">
+        <v>6596662060.8998251</v>
+      </c>
+      <c r="C37">
+        <v>-10924203077.479256</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-4672708927.8122625</v>
+      </c>
+      <c r="B38">
+        <v>4467539409.3726921</v>
+      </c>
+      <c r="C38">
+        <v>-13680527328.156466</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-2286589252.8824635</v>
+      </c>
+      <c r="B39">
+        <v>2050336282.7006395</v>
+      </c>
+      <c r="C39">
+        <v>-15627511572.877001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>563678789.53045332</v>
+      </c>
+      <c r="B40">
+        <v>-474347238.67504263</v>
+      </c>
+      <c r="C40">
+        <v>-16563898075.824009</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>3695452596.788269</v>
+      </c>
+      <c r="B41">
+        <v>-2919780829.5028124</v>
+      </c>
+      <c r="C41">
+        <v>-16344818286.142517</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>6883629675.8720312</v>
+      </c>
+      <c r="B42">
+        <v>-5107549259.6098194</v>
+      </c>
+      <c r="C42">
+        <v>-14896955915.122652</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>9875623846.954565</v>
+      </c>
+      <c r="B43">
+        <v>-6881351104.6557131</v>
+      </c>
+      <c r="C43">
+        <v>-12229997165.33161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
-        <v>1.8889497232845789</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>12409977476.16609</v>
+      </c>
+      <c r="B44">
+        <v>-8119032110.9836197</v>
+      </c>
+      <c r="C44">
+        <v>-8443150883.612318</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>14237334907.383865</v>
+      </c>
+      <c r="B45">
+        <v>-8741861191.9250717</v>
+      </c>
+      <c r="C45">
+        <v>-3725755992.4284267</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>15142204569.992846</v>
+      </c>
+      <c r="B46">
+        <v>-8720269780.2802868</v>
+      </c>
+      <c r="C46">
+        <v>1648667397.0810883</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>14963749931.615816</v>
+      </c>
+      <c r="B47">
+        <v>-8075558702.9321804</v>
+      </c>
+      <c r="C47">
+        <v>7335137923.5031948</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>13613796322.684772</v>
+      </c>
+      <c r="B48">
+        <v>-6877408812.4624996</v>
+      </c>
+      <c r="C48">
+        <v>12936424077.39497</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>11090335753.865978</v>
+      </c>
+      <c r="B49">
+        <v>-5237385191.7196751</v>
+      </c>
+      <c r="C49">
+        <v>18027938712.680698</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>7485057670.444314</v>
+      </c>
+      <c r="B50">
+        <v>-3298969862.1587882</v>
+      </c>
+      <c r="C50">
+        <v>22186987242.367931</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>2983820062.5989418</v>
+      </c>
+      <c r="B51">
+        <v>-1224964274.7798274</v>
+      </c>
+      <c r="C51">
+        <v>25024566874.219326</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-2140520146.1181319</v>
+      </c>
+      <c r="B52">
+        <v>816657499.72565889</v>
+      </c>
+      <c r="C52">
+        <v>26217534266.066273</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
-        <v>7.1673075042498366</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-7542910046.9144917</v>
+      </c>
+      <c r="B53">
+        <v>2667214042.4395537</v>
+      </c>
+      <c r="C53">
+        <v>25538712885.980648</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-11540430498.555363</v>
+      </c>
+      <c r="B54">
+        <v>3846810166.1851225</v>
+      </c>
+      <c r="C54">
+        <v>23732526724.420998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-11540430498.555363</v>
+      </c>
+      <c r="B55">
+        <v>3846810166.1851225</v>
+      </c>
+      <c r="C55">
+        <v>23732526724.420998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-12134529439.249212</v>
+      </c>
+      <c r="B56">
+        <v>6595943909.5449219</v>
+      </c>
+      <c r="C56">
+        <v>23732526724.420998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-11966171267.597511</v>
+      </c>
+      <c r="B57">
+        <v>8930630238.8832035</v>
+      </c>
+      <c r="C57">
+        <v>23732526724.420998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-11045934546.703182</v>
+      </c>
+      <c r="B58">
+        <v>10704172225.751945</v>
+      </c>
+      <c r="C58">
+        <v>23732526724.420998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-9431641134.1339302</v>
+      </c>
+      <c r="B59">
+        <v>11805131704.485029</v>
+      </c>
+      <c r="C59">
+        <v>23732526724.420998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-7224723021.9573565</v>
+      </c>
+      <c r="B60">
+        <v>12164331341.987923</v>
+      </c>
+      <c r="C60">
+        <v>23732526724.420998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-4563848991.6385765</v>
+      </c>
+      <c r="B61">
+        <v>11759201303.99246</v>
+      </c>
+      <c r="C61">
+        <v>23732526724.420998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-3846810166.1851244</v>
+      </c>
+      <c r="B62">
+        <v>11540430498.555363</v>
+      </c>
+      <c r="C62">
+        <v>23732526724.420998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
-        <v>7.9131238444566039</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-5478348634.9388094</v>
+      </c>
+      <c r="B63">
+        <v>15197074198.424234</v>
+      </c>
+      <c r="C63">
+        <v>18100290863.409107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-6802343698.9064322</v>
+      </c>
+      <c r="B64">
+        <v>17501600996.944775</v>
+      </c>
+      <c r="C64">
+        <v>11644199015.041706</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-7688275238.5690241</v>
+      </c>
+      <c r="B65">
+        <v>18394278483.400219</v>
+      </c>
+      <c r="C65">
+        <v>4875602923.9769783</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-8038225943.0717659</v>
+      </c>
+      <c r="B66">
+        <v>17922830364.118725</v>
+      </c>
+      <c r="C66">
+        <v>-1712607297.9946277</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-7796369086.7437258</v>
+      </c>
+      <c r="B67">
+        <v>16230875145.000256</v>
+      </c>
+      <c r="C67">
+        <v>-7678713143.3064632</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-6954829349.4265575</v>
+      </c>
+      <c r="B68">
+        <v>13539995334.174063</v>
+      </c>
+      <c r="C68">
+        <v>-12658595199.059866</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-5555412988.3646975</v>
+      </c>
+      <c r="B69">
+        <v>10127247079.998053</v>
+      </c>
+      <c r="C69">
+        <v>-16384567180.768854</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-3687069597.7669988</v>
+      </c>
+      <c r="B70">
+        <v>6300147883.94347</v>
+      </c>
+      <c r="C70">
+        <v>-18695961963.240604</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-1479317787.8605342</v>
+      </c>
+      <c r="B71">
+        <v>2371234924.2983785</v>
+      </c>
+      <c r="C71">
+        <v>-19541457601.974163</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>907790541.26013398</v>
+      </c>
+      <c r="B72">
+        <v>-1365824674.5403214</v>
+      </c>
+      <c r="C72">
+        <v>-18973714009.014378</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>3296306549.604497</v>
+      </c>
+      <c r="B73">
+        <v>-4656848193.8198738</v>
+      </c>
+      <c r="C73">
+        <v>-17137376770.221855</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
-        <v>4.6718809524710858</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>5504553511.9231358</v>
+      </c>
+      <c r="B74">
+        <v>-7303127708.3267326</v>
+      </c>
+      <c r="C74">
+        <v>-14251867568.688734</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>7361647735.0153408</v>
+      </c>
+      <c r="B75">
+        <v>-9171902619.3404942</v>
+      </c>
+      <c r="C75">
+        <v>-10590606710.375603</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>8721178536.0878239</v>
+      </c>
+      <c r="B76">
+        <v>-10200913949.687931</v>
+      </c>
+      <c r="C76">
+        <v>-6458400006.0018387</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>9472941493.8881779</v>
+      </c>
+      <c r="B77">
+        <v>-10397130907.926037</v>
+      </c>
+      <c r="C77">
+        <v>-2168678145.1651626</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>9551794962.801281</v>
+      </c>
+      <c r="B78">
+        <v>-9830190007.9887505</v>
+      </c>
+      <c r="C78">
+        <v>1977880973.2618663</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>8942957160.9071064</v>
+      </c>
+      <c r="B79">
+        <v>-8621463037.8689461</v>
+      </c>
+      <c r="C79">
+        <v>5712063794.7648716</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>7683357516.6474485</v>
+      </c>
+      <c r="B80">
+        <v>-6929947806.4118881</v>
+      </c>
+      <c r="C80">
+        <v>8811192408.1898632</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>6361634192.9561367</v>
+      </c>
+      <c r="B81">
+        <v>-5452829308.2481165</v>
+      </c>
+      <c r="C81">
+        <v>10616961342.732882</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>6361634192.9561367</v>
+      </c>
+      <c r="B82">
+        <v>-5452829308.2481165</v>
+      </c>
+      <c r="C82">
+        <v>10616961342.732882</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>4805708251.1600056</v>
+      </c>
+      <c r="B83">
+        <v>-5733539816.9436197</v>
+      </c>
+      <c r="C83">
+        <v>10616961342.732882</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>2947821985.7848711</v>
+      </c>
+      <c r="B84">
+        <v>-5653990932.4561319</v>
+      </c>
+      <c r="C84">
+        <v>10616961342.732882</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>904713223.71197224</v>
+      </c>
+      <c r="B85">
+        <v>-5219181003.7583351</v>
+      </c>
+      <c r="C85">
+        <v>10616961342.732882</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
-        <v>-1.5598032261076586</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-1195241997.5092382</v>
+      </c>
+      <c r="B86">
+        <v>-4456430737.7893677</v>
+      </c>
+      <c r="C86">
+        <v>10616961342.732882</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-3220095768.2343664</v>
+      </c>
+      <c r="B87">
+        <v>-3413666538.9593115</v>
+      </c>
+      <c r="C87">
+        <v>10616961342.732882</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-5042619079.1575022</v>
+      </c>
+      <c r="B88">
+        <v>-2156409116.8991194</v>
+      </c>
+      <c r="C88">
+        <v>10616961342.732882</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-5452829308.2481155</v>
+      </c>
+      <c r="B89">
+        <v>-1817609769.4160395</v>
+      </c>
+      <c r="C89">
+        <v>10616961342.732882</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-3411775473.1531467</v>
+      </c>
+      <c r="B90">
+        <v>-1045446937.9835505</v>
+      </c>
+      <c r="C90">
+        <v>11847061281.951843</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-1320667339.7554498</v>
+      </c>
+      <c r="B91">
+        <v>-368464121.01972061</v>
+      </c>
+      <c r="C91">
+        <v>12084314074.40444</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>664020498.96053517</v>
+      </c>
+      <c r="B92">
+        <v>166678768.72458661</v>
+      </c>
+      <c r="C92">
+        <v>11431718861.881413</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>2407944989.3662314</v>
+      </c>
+      <c r="B93">
+        <v>535578079.55853909</v>
+      </c>
+      <c r="C93">
+        <v>10046367527.118011</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>3807196072.581368</v>
+      </c>
+      <c r="B94">
+        <v>735407104.61828125</v>
+      </c>
+      <c r="C94">
+        <v>8120981592.4193916</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>4793521829.792738</v>
+      </c>
+      <c r="B95">
+        <v>782181022.38522673</v>
+      </c>
+      <c r="C95">
+        <v>5864823092.8923788</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>5336311637.4098282</v>
+      </c>
+      <c r="B96">
+        <v>706453788.35509098</v>
+      </c>
+      <c r="C96">
+        <v>3485585556.7318707</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>5441446250.8242826</v>
+      </c>
+      <c r="B97">
+        <v>548038692.07924902</v>
+      </c>
+      <c r="C97">
+        <v>1173610538.5542455</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>5147369532.6511478</v>
+      </c>
+      <c r="B98">
+        <v>350382347.13484597</v>
+      </c>
+      <c r="C98">
+        <v>-910570579.95853078</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
-        <v>-9.5427447000458212</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>4518935076.1839018</v>
+      </c>
+      <c r="B99">
+        <v>155195750.091162</v>
+      </c>
+      <c r="C99">
+        <v>-2644762083.6443176</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>3639718903.6563859</v>
+      </c>
+      <c r="B100">
+        <v>-2136522.6268857992</v>
+      </c>
+      <c r="C100">
+        <v>-3949489294.8446398</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>2603559351.5944982</v>
+      </c>
+      <c r="B101">
+        <v>-95974344.725446135</v>
+      </c>
+      <c r="C101">
+        <v>-4788408551.983366</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>1506086042.8900828</v>
+      </c>
+      <c r="B102">
+        <v>-112427103.2470343</v>
+      </c>
+      <c r="C102">
+        <v>-5165221246.7344446</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>436936318.19115967</v>
+      </c>
+      <c r="B103">
+        <v>-49870651.163756996</v>
+      </c>
+      <c r="C103">
+        <v>-5117807272.9726038</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-526760292.68813974</v>
+      </c>
+      <c r="B104">
+        <v>81940489.973710835</v>
+      </c>
+      <c r="C104">
+        <v>-4710438253.4934931</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-1325206940.9149427</v>
+      </c>
+      <c r="B105">
+        <v>263945609.83391199</v>
+      </c>
+      <c r="C105">
+        <v>-4024982485.9295421</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-1918832510.6413639</v>
+      </c>
+      <c r="B106">
+        <v>470711975.23917806</v>
+      </c>
+      <c r="C106">
+        <v>-3151977961.4215913</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-2289199011.5479465</v>
+      </c>
+      <c r="B107">
+        <v>673846273.14283359</v>
+      </c>
+      <c r="C107">
+        <v>-2182340690.3913174</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>-2420811666.1558433</v>
+      </c>
+      <c r="B108">
+        <v>806937222.05194783</v>
+      </c>
+      <c r="C108">
+        <v>-1442787965.9441867</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
         <v>0</v>
       </c>
@@ -1300,92 +1948,92 @@
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A182">
-        <v>0.30854369954711558</v>
+        <v>-92.263803582306167</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A183">
-        <v>34.026628594122087</v>
+        <v>-73.48486302197395</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A184">
-        <v>63.159401723182135</v>
+        <v>-49.590626070832698</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A185">
-        <v>85.127989357594927</v>
+        <v>-22.621833462459882</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A186">
-        <v>98.220031402373095</v>
+        <v>5.191038203637329</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A187">
-        <v>101.69445272797415</v>
+        <v>31.637892791466783</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A188">
-        <v>95.779537331423143</v>
+        <v>54.72265049499461</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A189">
-        <v>81.57527238470243</v>
+        <v>72.823474961885296</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A190">
-        <v>60.879452753211552</v>
+        <v>84.807662541186275</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A191">
-        <v>35.962440835373229</v>
+        <v>90.094816769996143</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A192">
-        <v>9.3176583265928095</v>
+        <v>88.667406521759958</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A193">
-        <v>-16.585902839738743</v>
+        <v>81.032684827953531</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A194">
-        <v>-39.52610966408826</v>
+        <v>68.143850456504055</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A195">
-        <v>-57.707045238550762</v>
+        <v>51.29104311492955</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A196">
-        <v>-69.88335319164986</v>
+        <v>31.974200171667572</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A197">
-        <v>-75.424023577346816</v>
+        <v>11.7700201873662</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A198">
-        <v>-74.316157967030222</v>
+        <v>-7.7955716587256623</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A199">
-        <v>-67.114517841951312</v>
+        <v>-25.359758316863168</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -1405,7 +2053,7 @@
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A203">
-        <v>98.220031402373095</v>
+        <v>5.191038203637329</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -1435,7 +2083,7 @@
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A209">
-        <v>101.69445272797415</v>
+        <v>31.637892791466783</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -1470,7 +2118,7 @@
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A216">
-        <v>95.779537331423143</v>
+        <v>54.72265049499461</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -1510,7 +2158,7 @@
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A224">
-        <v>81.57527238470243</v>
+        <v>72.823474961885296</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -1555,7 +2203,7 @@
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A233">
-        <v>60.879452753211552</v>
+        <v>84.807662541186275</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -1605,7 +2253,7 @@
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A243">
-        <v>35.962440835373229</v>
+        <v>90.094816769996143</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -1660,7 +2308,7 @@
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A254">
-        <v>9.3176583265928095</v>
+        <v>88.667406521759958</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -1720,7 +2368,7 @@
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A266">
-        <v>-16.585902839738743</v>
+        <v>81.032684827953531</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -1785,7 +2433,7 @@
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A279">
-        <v>-39.52610966408826</v>
+        <v>68.143850456504055</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -1855,7 +2503,7 @@
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A293">
-        <v>-57.707045238550762</v>
+        <v>51.29104311492955</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -1930,7 +2578,7 @@
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A308">
-        <v>-69.88335319164986</v>
+        <v>31.974200171667572</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -2010,7 +2658,7 @@
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A324">
-        <v>-75.424023577346816</v>
+        <v>11.7700201873662</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -2095,7 +2743,7 @@
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A341">
-        <v>-74.316157967030222</v>
+        <v>-7.7955716587256623</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -2185,107 +2833,107 @@
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A359">
-        <v>-67.114517841951312</v>
+        <v>-25.359758316863168</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A360">
-        <v>-58.3181005988301</v>
+        <v>-36.540314932992608</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A361">
-        <v>-58.3181005988301</v>
+        <v>-36.540314932992608</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A362">
-        <v>-56.150055812025272</v>
+        <v>-18.790541713782311</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A363">
-        <v>-49.303728794752736</v>
+        <v>-25.273283971613882</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A364">
-        <v>-38.017744563173224</v>
+        <v>-30.93796981825577</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A365">
-        <v>-22.931737895384778</v>
+        <v>-35.026698586788442</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A366">
-        <v>-5.0645438646271401</v>
+        <v>-36.77829084822045</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A367">
-        <v>14.244438738392958</v>
+        <v>-35.505462926025281</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A368">
-        <v>33.429361851808054</v>
+        <v>-30.679400112751171</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A369">
-        <v>50.822584761977403</v>
+        <v>-22.014368973142275</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A370">
-        <v>64.801313812848818</v>
+        <v>-9.543574100150666</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A371">
-        <v>73.944367089515126</v>
+        <v>6.3233202054825588</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A372">
-        <v>77.184627535910309</v>
+        <v>24.770492809939402</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A373">
-        <v>73.941285908261406</v>
+        <v>44.582439217748451</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A374">
-        <v>64.215980108569013</v>
+        <v>64.192665500236814</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A375">
-        <v>48.638665096675943</v>
+        <v>81.77721558373203</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A376">
-        <v>28.452605346146932</v>
+        <v>95.391217808557087</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A377">
-        <v>5.4331822384896142</v>
+        <v>103.14152644964044</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A378">
-        <v>-18.258065114900109</v>
+        <v>103.38320469144332</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A379">
-        <v>-40.275154677565318</v>
+        <v>94.922649096237691</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -2305,7 +2953,7 @@
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A383">
-        <v>-5.0645438646271401</v>
+        <v>-36.77829084822045</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -2335,7 +2983,7 @@
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A389">
-        <v>14.244438738392958</v>
+        <v>-35.505462926025281</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -2370,7 +3018,7 @@
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A396">
-        <v>33.429361851808054</v>
+        <v>-30.679400112751171</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -2410,7 +3058,7 @@
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A404">
-        <v>50.822584761977403</v>
+        <v>-22.014368973142275</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -2455,7 +3103,7 @@
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A413">
-        <v>64.801313812848818</v>
+        <v>-9.543574100150666</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -2505,7 +3153,7 @@
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A423">
-        <v>73.944367089515126</v>
+        <v>6.3233202054825588</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -2560,7 +3208,7 @@
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A434">
-        <v>77.184627535910309</v>
+        <v>24.770492809939402</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -2620,7 +3268,7 @@
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A446">
-        <v>73.941285908261406</v>
+        <v>44.582439217748451</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -2685,7 +3333,7 @@
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A459">
-        <v>64.215980108569013</v>
+        <v>64.192665500236814</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -2755,7 +3403,7 @@
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A473">
-        <v>48.638665096675943</v>
+        <v>81.77721558373203</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -2830,7 +3478,7 @@
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A488">
-        <v>28.452605346146932</v>
+        <v>95.391217808557087</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -2910,7 +3558,7 @@
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A504">
-        <v>5.4331822384896142</v>
+        <v>103.14152644964044</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -2995,7 +3643,7 @@
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A521">
-        <v>-18.258065114900109</v>
+        <v>103.38320469144332</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -3085,107 +3733,107 @@
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A539">
-        <v>-40.275154677565318</v>
+        <v>94.922649096237691</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A540">
-        <v>-54.302578684014932</v>
+        <v>82.504743210225129</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A541">
-        <v>-54.302578684014932</v>
+        <v>82.504743210225129</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A542">
-        <v>-83.846503176877803</v>
+        <v>-50.341612770543222</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A543">
-        <v>-111.92490102609401</v>
+        <v>-22.216607833380799</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A544">
-        <v>-136.14099027541363</v>
+        <v>12.761880373708804</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A545">
-        <v>-153.9569170777838</v>
+        <v>52.984363776509554</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A546">
-        <v>-162.8545737739166</v>
+        <v>96.116658128203909</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A547">
-        <v>-160.52676489337017</v>
+        <v>139.14466180021546</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A548">
-        <v>-145.09151402683963</v>
+        <v>178.48246140188149</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A549">
-        <v>-115.31896228728576</v>
+        <v>210.14957762521939</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A550">
-        <v>-70.856772295762525</v>
+        <v>230.0192403970743</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A551">
-        <v>-12.436390603243659</v>
+        <v>234.13437905907338</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A552">
-        <v>57.96081930151886</v>
+        <v>219.08148534289822</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A553">
-        <v>137.00134049899711</v>
+        <v>182.40469529769453</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A554">
-        <v>219.98668373345424</v>
+        <v>123.03351775513163</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A555">
-        <v>300.95562393646776</v>
+        <v>41.687992697147322</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A556">
-        <v>372.924831279974</v>
+        <v>-58.784629937028662</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A557">
-        <v>428.28557940968767</v>
+        <v>-173.19625727367756</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A558">
-        <v>459.36413838729482</v>
+        <v>-293.98793912268576</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A559">
-        <v>459.13790688638954</v>
+        <v>-411.44515187474644</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -3205,7 +3853,7 @@
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A563">
-        <v>-162.8545737739166</v>
+        <v>96.116658128203909</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -3235,7 +3883,7 @@
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A569">
-        <v>-160.52676489337017</v>
+        <v>139.14466180021546</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -3270,7 +3918,7 @@
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A576">
-        <v>-145.09151402683963</v>
+        <v>178.48246140188149</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -3310,7 +3958,7 @@
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A584">
-        <v>-115.31896228728576</v>
+        <v>210.14957762521939</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -3355,7 +4003,7 @@
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A593">
-        <v>-70.856772295762525</v>
+        <v>230.0192403970743</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -3405,7 +4053,7 @@
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A603">
-        <v>-12.436390603243659</v>
+        <v>234.13437905907338</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -3460,7 +4108,7 @@
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A614">
-        <v>57.96081930151886</v>
+        <v>219.08148534289822</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -3520,7 +4168,7 @@
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A626">
-        <v>137.00134049899711</v>
+        <v>182.40469529769453</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -3585,7 +4233,7 @@
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A639">
-        <v>219.98668373345424</v>
+        <v>123.03351775513163</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -3655,7 +4303,7 @@
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A653">
-        <v>300.95562393646776</v>
+        <v>41.687992697147322</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -3730,7 +4378,7 @@
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A668">
-        <v>372.924831279974</v>
+        <v>-58.784629937028662</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -3810,7 +4458,7 @@
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A684">
-        <v>428.28557940968767</v>
+        <v>-173.19625727367756</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -3895,7 +4543,7 @@
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A701">
-        <v>459.36413838729482</v>
+        <v>-293.98793912268576</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -3985,12 +4633,12 @@
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A719">
-        <v>459.13790688638954</v>
+        <v>-411.44515187474644</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A720">
-        <v>435.01646169422884</v>
+        <v>-490.55900678017969</v>
       </c>
     </row>
   </sheetData>
@@ -4915,92 +5563,92 @@
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A182">
-        <v>-131.55024273124189</v>
+        <v>100.59220149216891</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A183">
-        <v>-144.96965976907808</v>
+        <v>74.982104809382804</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A184">
-        <v>-144.51739650170555</v>
+        <v>47.413198581285819</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A185">
-        <v>-131.45018137832159</v>
+        <v>20.28452021753516</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A186">
-        <v>-108.0604641493986</v>
+        <v>-4.368364897680773</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A187">
-        <v>-77.359253182173461</v>
+        <v>-24.997131052005372</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A188">
-        <v>-42.725516785965375</v>
+        <v>-40.603380219489985</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A189">
-        <v>-7.5598424116205365</v>
+        <v>-50.743518347792595</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A190">
-        <v>25.025310441448497</v>
+        <v>-55.484076159828369</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A191">
-        <v>52.454210087375564</v>
+        <v>-55.319087978099084</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A192">
-        <v>72.859790265518626</v>
+        <v>-51.062822590561247</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A193">
-        <v>85.172616007372682</v>
+        <v>-43.731297714467942</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A194">
-        <v>89.129027595520526</v>
+        <v>-34.424866255988228</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A195">
-        <v>85.207645784971021</v>
+        <v>-24.222075475428724</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A196">
-        <v>74.50860359797224</v>
+        <v>-14.092332668253476</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A197">
-        <v>58.59302177494223</v>
+        <v>-4.8320119646902713</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A198">
-        <v>39.301402784845898</v>
+        <v>2.9741892741782956</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A199">
-        <v>18.568990031119753</v>
+        <v>8.9673485531329558</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -5020,7 +5668,7 @@
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A203">
-        <v>-108.0604641493986</v>
+        <v>-4.368364897680773</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -5050,7 +5698,7 @@
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A209">
-        <v>-77.359253182173461</v>
+        <v>-24.997131052005372</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -5085,7 +5733,7 @@
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A216">
-        <v>-42.725516785965375</v>
+        <v>-40.603380219489985</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -5125,7 +5773,7 @@
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A224">
-        <v>-7.5598424116205365</v>
+        <v>-50.743518347792595</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -5170,7 +5818,7 @@
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A233">
-        <v>25.025310441448497</v>
+        <v>-55.484076159828369</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -5220,7 +5868,7 @@
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A243">
-        <v>52.454210087375564</v>
+        <v>-55.319087978099084</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -5275,7 +5923,7 @@
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A254">
-        <v>72.859790265518626</v>
+        <v>-51.062822590561247</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -5335,7 +5983,7 @@
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A266">
-        <v>85.172616007372682</v>
+        <v>-43.731297714467942</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -5400,7 +6048,7 @@
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A279">
-        <v>89.129027595520526</v>
+        <v>-34.424866255988228</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -5470,7 +6118,7 @@
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A293">
-        <v>85.207645784971021</v>
+        <v>-24.222075475428724</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -5545,7 +6193,7 @@
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A308">
-        <v>74.50860359797224</v>
+        <v>-14.092332668253476</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -5625,7 +6273,7 @@
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A324">
-        <v>58.59302177494223</v>
+        <v>-4.8320119646902713</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -5710,7 +6358,7 @@
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A341">
-        <v>39.301402784845898</v>
+        <v>2.9741892741782956</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -5800,107 +6448,107 @@
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A359">
-        <v>18.568990031119753</v>
+        <v>8.9673485531329558</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A360">
-        <v>3.1992268960577732</v>
+        <v>12.180104977664206</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A361">
-        <v>3.1992268960577732</v>
+        <v>12.180104977664206</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A362">
-        <v>-3.7523573720713763</v>
+        <v>52.125426051152552</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A363">
-        <v>-10.756937112064072</v>
+        <v>65.025078345390753</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A364">
-        <v>-17.000547248652801</v>
+        <v>74.019414613718681</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A365">
-        <v>-21.667880905530446</v>
+        <v>78.099021031775621</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A366">
-        <v>-24.030455089146269</v>
+        <v>76.566904434907215</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A367">
-        <v>-23.536164738037488</v>
+        <v>69.1237380821876</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A368">
-        <v>-19.890895424213738</v>
+        <v>55.927050942689483</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A369">
-        <v>-13.122397355270621</v>
+        <v>37.616263112171865</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A370">
-        <v>-3.6171360600408837</v>
+        <v>15.297630025550824</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A371">
-        <v>7.8775598505293818</v>
+        <v>-9.5138100356044468</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A372">
-        <v>20.291024466232866</v>
+        <v>-34.994446956347218</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A373">
-        <v>32.307723157566421</v>
+        <v>-59.149438088063675</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A374">
-        <v>42.483488501548266</v>
+        <v>-79.977866102396845</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A375">
-        <v>49.391547289513795</v>
+        <v>-95.652478132724795</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A376">
-        <v>51.78571425113288</v>
+        <v>-104.69767808256253</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A377">
-        <v>48.764226281724149</v>
+        <v>-106.1476724178566</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A378">
-        <v>39.915155646372732</v>
+        <v>-99.666638444828436</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A379">
-        <v>25.42374183660613</v>
+        <v>-85.614785262563927</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -5920,7 +6568,7 @@
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A383">
-        <v>-24.030455089146269</v>
+        <v>76.566904434907215</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -5950,7 +6598,7 @@
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A389">
-        <v>-23.536164738037488</v>
+        <v>69.1237380821876</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -5985,7 +6633,7 @@
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A396">
-        <v>-19.890895424213738</v>
+        <v>55.927050942689483</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -6025,7 +6673,7 @@
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A404">
-        <v>-13.122397355270621</v>
+        <v>37.616263112171865</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -6070,7 +6718,7 @@
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A413">
-        <v>-3.6171360600408837</v>
+        <v>15.297630025550824</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -6120,7 +6768,7 @@
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A423">
-        <v>7.8775598505293818</v>
+        <v>-9.5138100356044468</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -6175,7 +6823,7 @@
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A434">
-        <v>20.291024466232866</v>
+        <v>-34.994446956347218</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -6235,7 +6883,7 @@
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A446">
-        <v>32.307723157566421</v>
+        <v>-59.149438088063675</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -6300,7 +6948,7 @@
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A459">
-        <v>42.483488501548266</v>
+        <v>-79.977866102396845</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -6370,7 +7018,7 @@
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A473">
-        <v>49.391547289513795</v>
+        <v>-95.652478132724795</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -6445,7 +7093,7 @@
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A488">
-        <v>51.78571425113288</v>
+        <v>-104.69767808256253</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -6525,7 +7173,7 @@
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A504">
-        <v>48.764226281724149</v>
+        <v>-106.1476724178566</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -6610,7 +7258,7 @@
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A521">
-        <v>39.915155646372732</v>
+        <v>-99.666638444828436</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -6700,107 +7348,107 @@
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A539">
-        <v>25.42374183660613</v>
+        <v>-85.614785262563927</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A540">
-        <v>11.329639905728744</v>
+        <v>-70.718351323050101</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A541">
-        <v>11.329639905728744</v>
+        <v>-70.718351323050101</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A542">
-        <v>1.8083780812302557</v>
+        <v>-15.425834829476068</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A543">
-        <v>-7.9355109445679588</v>
+        <v>-6.1983988177388536</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A544">
-        <v>-17.302085652313338</v>
+        <v>3.2034169285889358</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A545">
-        <v>-25.768713442553455</v>
+        <v>11.784847213441898</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A546">
-        <v>-32.95618307926496</v>
+        <v>18.56612370681545</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A547">
-        <v>-38.686083294975958</v>
+        <v>22.704874973114496</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A548">
-        <v>-43.020755301476512</v>
+        <v>23.628607094150638</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A549">
-        <v>-46.276800540953289</v>
+        <v>21.165347290765872</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A550">
-        <v>-49.00360356062351</v>
+        <v>15.657450048081365</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A551">
-        <v>-51.919834858130578</v>
+        <v>8.0409786747559338</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A552">
-        <v>-55.803649130288697</v>
+        <v>-0.12860129118670008</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A553">
-        <v>-61.336486414983185</v>
+        <v>-6.7239377874445569</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A554">
-        <v>-68.90615581733185</v>
+        <v>-9.1842707585010928</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A555">
-        <v>-78.382263193786216</v>
+        <v>-4.7581472515798451</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A556">
-        <v>-88.88587839849572</v>
+        <v>9.1442757679822595</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A557">
-        <v>-98.585173655339361</v>
+        <v>34.496040079212115</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A558">
-        <v>-104.55871700762208</v>
+        <v>72.118667342508346</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A559">
-        <v>-102.77668730288954</v>
+        <v>121.1125729108232</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -6820,7 +7468,7 @@
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A563">
-        <v>-32.95618307926496</v>
+        <v>18.56612370681545</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -6850,7 +7498,7 @@
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A569">
-        <v>-38.686083294975958</v>
+        <v>22.704874973114496</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -6885,7 +7533,7 @@
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A576">
-        <v>-43.020755301476512</v>
+        <v>23.628607094150638</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -6925,7 +7573,7 @@
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A584">
-        <v>-46.276800540953289</v>
+        <v>21.165347290765872</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -6970,7 +7618,7 @@
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A593">
-        <v>-49.00360356062351</v>
+        <v>15.657450048081365</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -7020,7 +7668,7 @@
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A603">
-        <v>-51.919834858130578</v>
+        <v>8.0409786747559338</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -7075,7 +7723,7 @@
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A614">
-        <v>-55.803649130288697</v>
+        <v>-0.12860129118670008</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -7135,7 +7783,7 @@
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A626">
-        <v>-61.336486414983185</v>
+        <v>-6.7239377874445569</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -7200,7 +7848,7 @@
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A639">
-        <v>-68.90615581733185</v>
+        <v>-9.1842707585010928</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -7270,7 +7918,7 @@
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A653">
-        <v>-78.382263193786216</v>
+        <v>-4.7581472515798451</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -7345,7 +7993,7 @@
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A668">
-        <v>-88.88587839849572</v>
+        <v>9.1442757679822595</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -7425,7 +8073,7 @@
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A684">
-        <v>-98.585173655339361</v>
+        <v>34.496040079212115</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -7510,7 +8158,7 @@
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A701">
-        <v>-104.55871700762208</v>
+        <v>72.118667342508346</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -7600,12 +8248,12 @@
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A719">
-        <v>-102.77668730288954</v>
+        <v>121.1125729108232</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A720">
-        <v>-93.379119134498438</v>
+        <v>163.51966892672658</v>
       </c>
     </row>
   </sheetData>
@@ -7617,7 +8265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A720"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A720"/>
     </sheetView>
   </sheetViews>
@@ -8530,92 +9178,92 @@
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A182">
-        <v>-48.010312516288231</v>
+        <v>-92.346140495370165</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A183">
-        <v>-41.447708039027191</v>
+        <v>-124.17185124120164</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A184">
-        <v>-32.403132767106385</v>
+        <v>-145.18899543354408</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A185">
-        <v>-21.690995806805688</v>
+        <v>-154.60711353761448</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A186">
-        <v>-10.191533415413138</v>
+        <v>-152.5404704058177</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A187">
-        <v>1.2197400383320476</v>
+        <v>-139.93295681357401</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A188">
-        <v>11.736616782463123</v>
+        <v>-118.4260267283086</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A189">
-        <v>20.676368251747654</v>
+        <v>-90.184772745076401</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A190">
-        <v>27.520293310367759</v>
+        <v>-57.699048390450834</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A191">
-        <v>31.938785352344517</v>
+        <v>-23.576835527937607</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A192">
-        <v>33.800416225377177</v>
+        <v>9.6540144891352355</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A193">
-        <v>33.165783998227219</v>
+        <v>39.72172231166261</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A194">
-        <v>30.267932340971253</v>
+        <v>64.753264032825882</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A195">
-        <v>25.481964088128127</v>
+        <v>83.376355983008196</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A196">
-        <v>19.287008534667873</v>
+        <v>94.77698135779309</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A197">
-        <v>12.223953695393845</v>
+        <v>98.712271889850328</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A198">
-        <v>4.8523351566899686</v>
+        <v>95.48177692083992</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A199">
-        <v>-2.2904861736295259</v>
+        <v>85.862827805716549</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -8635,7 +9283,7 @@
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A203">
-        <v>-10.191533415413138</v>
+        <v>-152.5404704058177</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -8665,7 +9313,7 @@
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A209">
-        <v>1.2197400383320476</v>
+        <v>-139.93295681357401</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -8700,7 +9348,7 @@
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A216">
-        <v>11.736616782463123</v>
+        <v>-118.4260267283086</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -8740,7 +9388,7 @@
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A224">
-        <v>20.676368251747654</v>
+        <v>-90.184772745076401</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -8785,7 +9433,7 @@
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A233">
-        <v>27.520293310367759</v>
+        <v>-57.699048390450834</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -8835,7 +9483,7 @@
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A243">
-        <v>31.938785352344517</v>
+        <v>-23.576835527937607</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -8890,7 +9538,7 @@
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A254">
-        <v>33.800416225377177</v>
+        <v>9.6540144891352355</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -8950,7 +9598,7 @@
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A266">
-        <v>33.165783998227219</v>
+        <v>39.72172231166261</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -9015,7 +9663,7 @@
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A279">
-        <v>30.267932340971253</v>
+        <v>64.753264032825882</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -9085,7 +9733,7 @@
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A293">
-        <v>25.481964088128127</v>
+        <v>83.376355983008196</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -9160,7 +9808,7 @@
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A308">
-        <v>19.287008534667873</v>
+        <v>94.77698135779309</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -9240,7 +9888,7 @@
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A324">
-        <v>12.223953695393845</v>
+        <v>98.712271889850328</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -9325,7 +9973,7 @@
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A341">
-        <v>4.8523351566899686</v>
+        <v>95.48177692083992</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -9415,107 +10063,107 @@
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A359">
-        <v>-2.2904861736295259</v>
+        <v>85.862827805716549</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A360">
-        <v>-7.2060647298755036</v>
+        <v>75.143990579429641</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A361">
-        <v>-7.2060647298755036</v>
+        <v>75.143990579429641</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A362">
-        <v>16.318648332944516</v>
+        <v>62.083356347816768</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A363">
-        <v>40.573388358116446</v>
+        <v>43.262610852263514</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A364">
-        <v>63.789904789650087</v>
+        <v>19.619648286144677</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A365">
-        <v>84.128448318000423</v>
+        <v>-7.4627137939678621</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A366">
-        <v>99.811755478912374</v>
+        <v>-36.223265238271459</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A367">
-        <v>109.26644554447927</v>
+        <v>-64.624056170816019</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A368">
-        <v>111.26159620249669</v>
+        <v>-90.482686573590925</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A369">
-        <v>105.03342742172507</v>
+        <v>-111.62789148755895</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A370">
-        <v>90.384963549077369</v>
+        <v>-126.06848249902556</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A371">
-        <v>67.750362924129561</v>
+        <v>-132.16360351111859</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A372">
-        <v>38.215346600239741</v>
+        <v>-128.7808829912789</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A373">
-        <v>3.4877988082597287</v>
+        <v>-115.42862073085394</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A374">
-        <v>-34.183950593773069</v>
+        <v>-92.348791802422141</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A375">
-        <v>-72.143601542797327</v>
+        <v>-60.559472258402799</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A376">
-        <v>-107.50415903028805</v>
+        <v>-21.838290612855509</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A377">
-        <v>-137.35963899607017</v>
+        <v>21.357416434544287</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A378">
-        <v>-159.01679829514524</v>
+        <v>66.033130862594902</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A379">
-        <v>-170.22923131333431</v>
+        <v>108.85628102946669</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -9535,7 +10183,7 @@
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A383">
-        <v>99.811755478912374</v>
+        <v>-36.223265238271459</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -9565,7 +10213,7 @@
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A389">
-        <v>109.26644554447927</v>
+        <v>-64.624056170816019</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -9600,7 +10248,7 @@
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A396">
-        <v>111.26159620249669</v>
+        <v>-90.482686573590925</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -9640,7 +10288,7 @@
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A404">
-        <v>105.03342742172507</v>
+        <v>-111.62789148755895</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -9685,7 +10333,7 @@
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A413">
-        <v>90.384963549077369</v>
+        <v>-126.06848249902556</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -9735,7 +10383,7 @@
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A423">
-        <v>67.750362924129561</v>
+        <v>-132.16360351111859</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -9790,7 +10438,7 @@
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A434">
-        <v>38.215346600239741</v>
+        <v>-128.7808829912789</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -9850,7 +10498,7 @@
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A446">
-        <v>3.4877988082597287</v>
+        <v>-115.42862073085394</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -9915,7 +10563,7 @@
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A459">
-        <v>-34.183950593773069</v>
+        <v>-92.348791802422141</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -9985,7 +10633,7 @@
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A473">
-        <v>-72.143601542797327</v>
+        <v>-60.559472258402799</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -10060,7 +10708,7 @@
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A488">
-        <v>-107.50415903028805</v>
+        <v>-21.838290612855509</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -10140,7 +10788,7 @@
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A504">
-        <v>-137.35963899607017</v>
+        <v>21.357416434544287</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -10225,7 +10873,7 @@
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A521">
-        <v>-159.01679829514524</v>
+        <v>66.033130862594902</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -10315,107 +10963,107 @@
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A539">
-        <v>-170.22923131333431</v>
+        <v>108.85628102946669</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A540">
-        <v>-170.80173712447993</v>
+        <v>137.69255551112178</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A541">
-        <v>-170.80173712447993</v>
+        <v>137.69255551112178</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A542">
-        <v>-162.17419844513086</v>
+        <v>174.80639515053576</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A543">
-        <v>-139.55475448315596</v>
+        <v>203.28545928618257</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A544">
-        <v>-102.70022462397617</v>
+        <v>219.70741687881508</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A545">
-        <v>-52.403021347910943</v>
+        <v>221.06003004222885</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A546">
-        <v>9.4128097679121758</v>
+        <v>205.02269820182192</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A547">
-        <v>79.661130241762123</v>
+        <v>170.24201719633939</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A548">
-        <v>154.14127593862119</v>
+        <v>116.58162638610779</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A549">
-        <v>227.67311197055935</v>
+        <v>45.325038161742441</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A550">
-        <v>294.32498392420905</v>
+        <v>-40.690444274768872</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A551">
-        <v>347.734877352176</v>
+        <v>-137.03001210983612</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A552">
-        <v>381.51901816765047</v>
+        <v>-237.727144310847</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A553">
-        <v>389.75519352149155</v>
+        <v>-335.47466561516512</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A554">
-        <v>367.52040958789706</v>
+        <v>-421.95154982633687</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A555">
-        <v>311.45436196425015</v>
+        <v>-488.28880397108168</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A556">
-        <v>220.31189989268165</v>
+        <v>-525.66864552331344</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A557">
-        <v>95.459666031527703</v>
+        <v>-526.0400324147131</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A558">
-        <v>-58.734989894831024</v>
+        <v>-482.92047372531232</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A559">
-        <v>-234.68003862345228</v>
+        <v>-392.23915975454196</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -10435,7 +11083,7 @@
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A563">
-        <v>9.4128097679121758</v>
+        <v>205.02269820182192</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -10465,7 +11113,7 @@
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A569">
-        <v>79.661130241762123</v>
+        <v>170.24201719633939</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -10500,7 +11148,7 @@
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A576">
-        <v>154.14127593862119</v>
+        <v>116.58162638610779</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -10540,7 +11188,7 @@
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A584">
-        <v>227.67311197055935</v>
+        <v>45.325038161742441</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -10585,7 +11233,7 @@
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A593">
-        <v>294.32498392420905</v>
+        <v>-40.690444274768872</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -10635,7 +11283,7 @@
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A603">
-        <v>347.734877352176</v>
+        <v>-137.03001210983612</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -10690,7 +11338,7 @@
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A614">
-        <v>381.51901816765047</v>
+        <v>-237.727144310847</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -10750,7 +11398,7 @@
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A626">
-        <v>389.75519352149155</v>
+        <v>-335.47466561516512</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -10815,7 +11463,7 @@
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A639">
-        <v>367.52040958789706</v>
+        <v>-421.95154982633687</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -10885,7 +11533,7 @@
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A653">
-        <v>311.45436196425015</v>
+        <v>-488.28880397108168</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -10960,7 +11608,7 @@
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A668">
-        <v>220.31189989268165</v>
+        <v>-525.66864552331344</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -11040,7 +11688,7 @@
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A684">
-        <v>95.459666031527703</v>
+        <v>-526.0400324147131</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -11125,7 +11773,7 @@
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A701">
-        <v>-58.734989894831024</v>
+        <v>-482.92047372531232</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -11215,12 +11863,12 @@
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A719">
-        <v>-234.68003862345228</v>
+        <v>-392.23915975454196</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A720">
-        <v>-374.52105435075788</v>
+        <v>-292.36996890877174</v>
       </c>
     </row>
   </sheetData>
